--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H2">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I2">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J2">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9048976666666667</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N2">
-        <v>2.714693</v>
+        <v>2.707266</v>
       </c>
       <c r="O2">
-        <v>0.1425809899086412</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P2">
-        <v>0.1425809899086412</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q2">
-        <v>0.02613615930633334</v>
+        <v>0.2625617865513333</v>
       </c>
       <c r="R2">
-        <v>0.235225433757</v>
+        <v>2.363056078962</v>
       </c>
       <c r="S2">
-        <v>0.007157908632650221</v>
+        <v>0.1092191190332647</v>
       </c>
       <c r="T2">
-        <v>0.007157908632650221</v>
+        <v>0.1092191190332647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H3">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I3">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J3">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.499938999999999</v>
       </c>
       <c r="O3">
-        <v>0.3939114761317116</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P3">
-        <v>0.3939114761317116</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q3">
-        <v>0.07220691271233333</v>
+        <v>0.7273749173025554</v>
       </c>
       <c r="R3">
-        <v>0.649862214411</v>
+        <v>6.546374255722999</v>
       </c>
       <c r="S3">
-        <v>0.0197753035471967</v>
+        <v>0.3025697254659217</v>
       </c>
       <c r="T3">
-        <v>0.0197753035471967</v>
+        <v>0.3025697254659217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H4">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I4">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J4">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.316536</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N4">
-        <v>0.949608</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O4">
-        <v>0.04987527085573395</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P4">
-        <v>0.04987527085573395</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q4">
-        <v>0.009142509288000001</v>
+        <v>0.09119784507400001</v>
       </c>
       <c r="R4">
-        <v>0.08228258359200001</v>
+        <v>0.8207806056660001</v>
       </c>
       <c r="S4">
-        <v>0.002503858558162455</v>
+        <v>0.03793601661362499</v>
       </c>
       <c r="T4">
-        <v>0.002503858558162455</v>
+        <v>0.03793601661362498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H5">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I5">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J5">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.464842666666667</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N5">
-        <v>7.394528</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O5">
-        <v>0.3883750840876537</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P5">
-        <v>0.3883750840876537</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q5">
-        <v>0.07119205074133333</v>
+        <v>0.4869569309365555</v>
       </c>
       <c r="R5">
-        <v>0.6407284566720001</v>
+        <v>4.382612378428999</v>
       </c>
       <c r="S5">
-        <v>0.0194973633503213</v>
+        <v>0.2025618720172546</v>
       </c>
       <c r="T5">
-        <v>0.0194973633503213</v>
+        <v>0.2025618720172546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,75 +776,75 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2909523333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.872857</v>
+      </c>
+      <c r="I6">
+        <v>0.68337437121998</v>
+      </c>
+      <c r="J6">
+        <v>0.68337437121998</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.028883</v>
-      </c>
-      <c r="H6">
-        <v>0.086649</v>
-      </c>
-      <c r="I6">
-        <v>0.05020240522412316</v>
-      </c>
-      <c r="J6">
-        <v>0.05020240522412316</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.160296</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N6">
-        <v>0.480888</v>
+        <v>0.373853</v>
       </c>
       <c r="O6">
-        <v>0.02525717901625954</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P6">
-        <v>0.02525717901625954</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q6">
-        <v>0.004629829368000001</v>
+        <v>0.03625780089122222</v>
       </c>
       <c r="R6">
-        <v>0.041668464312</v>
+        <v>0.326320208021</v>
       </c>
       <c r="S6">
-        <v>0.001267971135792482</v>
+        <v>0.01508233594628053</v>
       </c>
       <c r="T6">
-        <v>0.001267971135792482</v>
+        <v>0.01508233594628053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,40 +859,40 @@
         <v>0.872857</v>
       </c>
       <c r="I7">
-        <v>0.5057129432158762</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J7">
-        <v>0.5057129432158762</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.9048976666666667</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N7">
-        <v>2.714693</v>
+        <v>0.396731</v>
       </c>
       <c r="O7">
-        <v>0.1425809899086412</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P7">
-        <v>0.1425809899086412</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q7">
-        <v>0.2632820875445556</v>
+        <v>0.03847660338522222</v>
       </c>
       <c r="R7">
-        <v>2.369538787901</v>
+        <v>0.346289430467</v>
       </c>
       <c r="S7">
-        <v>0.07210505205333209</v>
+        <v>0.01600530214363351</v>
       </c>
       <c r="T7">
-        <v>0.07210505205333209</v>
+        <v>0.01600530214363351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H8">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I8">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J8">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.499979666666666</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N8">
-        <v>7.499938999999999</v>
+        <v>2.707266</v>
       </c>
       <c r="O8">
-        <v>0.3939114761317116</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P8">
-        <v>0.3939114761317116</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q8">
-        <v>0.7273749173025554</v>
+        <v>0.06834914147266666</v>
       </c>
       <c r="R8">
-        <v>6.546374255722999</v>
+        <v>0.6151422732539999</v>
       </c>
       <c r="S8">
-        <v>0.1992061319610783</v>
+        <v>0.0284315288845932</v>
       </c>
       <c r="T8">
-        <v>0.1992061319610782</v>
+        <v>0.0284315288845932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H9">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I9">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J9">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.316536</v>
+        <v>2.499979666666666</v>
       </c>
       <c r="N9">
-        <v>0.949608</v>
+        <v>7.499938999999999</v>
       </c>
       <c r="O9">
-        <v>0.04987527085573395</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P9">
-        <v>0.04987527085573395</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q9">
-        <v>0.09209688778399999</v>
+        <v>0.1893476266267778</v>
       </c>
       <c r="R9">
-        <v>0.828871990056</v>
+        <v>1.704128639641</v>
       </c>
       <c r="S9">
-        <v>0.02522257001814223</v>
+        <v>0.07876386447108893</v>
       </c>
       <c r="T9">
-        <v>0.02522257001814223</v>
+        <v>0.07876386447108893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.07573966666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.227219</v>
+      </c>
+      <c r="I10">
+        <v>0.1778935624669707</v>
+      </c>
+      <c r="J10">
+        <v>0.1778935624669707</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.2909523333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.872857</v>
-      </c>
-      <c r="I10">
-        <v>0.5057129432158762</v>
-      </c>
-      <c r="J10">
-        <v>0.5057129432158762</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>2.464842666666667</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N10">
-        <v>7.394528</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O10">
-        <v>0.3883750840876537</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P10">
-        <v>0.3883750840876537</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q10">
-        <v>0.7171517251662222</v>
+        <v>0.023740295558</v>
       </c>
       <c r="R10">
-        <v>6.454365526496</v>
+        <v>0.213662660022</v>
       </c>
       <c r="S10">
-        <v>0.1964063068456808</v>
+        <v>0.009875367624858661</v>
       </c>
       <c r="T10">
-        <v>0.1964063068456808</v>
+        <v>0.009875367624858661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,75 +1086,75 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H11">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I11">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J11">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.160296</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N11">
-        <v>0.480888</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O11">
-        <v>0.02525717901625954</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P11">
-        <v>0.02525717901625954</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q11">
-        <v>0.04663849522399999</v>
+        <v>0.1267628797047778</v>
       </c>
       <c r="R11">
-        <v>0.419746457016</v>
+        <v>1.140865917343</v>
       </c>
       <c r="S11">
-        <v>0.01277288233764288</v>
+        <v>0.05273017916782311</v>
       </c>
       <c r="T11">
-        <v>0.01277288233764288</v>
+        <v>0.05273017916782311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,60 +1163,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.160399</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H12">
-        <v>0.481197</v>
+        <v>0.227219</v>
       </c>
       <c r="I12">
-        <v>0.2787942940672413</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J12">
-        <v>0.2787942940672413</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.9048976666666667</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N12">
-        <v>2.714693</v>
+        <v>0.373853</v>
       </c>
       <c r="O12">
-        <v>0.1425809899086412</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P12">
-        <v>0.1425809899086412</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q12">
-        <v>0.1451446808356667</v>
+        <v>0.00943850053411111</v>
       </c>
       <c r="R12">
-        <v>1.306302127521</v>
+        <v>0.084946504807</v>
       </c>
       <c r="S12">
-        <v>0.03975076642898809</v>
+        <v>0.003926179536141563</v>
       </c>
       <c r="T12">
-        <v>0.03975076642898809</v>
+        <v>0.003926179536141562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,46 +1225,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.160399</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H13">
-        <v>0.481197</v>
+        <v>0.227219</v>
       </c>
       <c r="I13">
-        <v>0.2787942940672413</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J13">
-        <v>0.2787942940672413</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>2.499979666666666</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N13">
-        <v>7.499938999999999</v>
+        <v>0.396731</v>
       </c>
       <c r="O13">
-        <v>0.3939114761317116</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P13">
-        <v>0.3939114761317116</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q13">
-        <v>0.4009942385536667</v>
+        <v>0.01001609123211111</v>
       </c>
       <c r="R13">
-        <v>3.608948146983</v>
+        <v>0.090144821089</v>
       </c>
       <c r="S13">
-        <v>0.1098202719131255</v>
+        <v>0.004166442782465242</v>
       </c>
       <c r="T13">
-        <v>0.1098202719131255</v>
+        <v>0.004166442782465242</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H14">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I14">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J14">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.316536</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N14">
-        <v>0.949608</v>
+        <v>2.707266</v>
       </c>
       <c r="O14">
-        <v>0.04987527085573395</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P14">
-        <v>0.04987527085573395</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q14">
-        <v>0.050772057864</v>
+        <v>0.05330275865933333</v>
       </c>
       <c r="R14">
-        <v>0.4569485207760001</v>
+        <v>0.479724827934</v>
       </c>
       <c r="S14">
-        <v>0.0139049409296368</v>
+        <v>0.02217261094724046</v>
       </c>
       <c r="T14">
-        <v>0.0139049409296368</v>
+        <v>0.02217261094724046</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H15">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I15">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J15">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.464842666666667</v>
+        <v>2.499979666666666</v>
       </c>
       <c r="N15">
-        <v>7.394528</v>
+        <v>7.499938999999999</v>
       </c>
       <c r="O15">
-        <v>0.3883750840876537</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P15">
-        <v>0.3883750840876537</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q15">
-        <v>0.3953582988906667</v>
+        <v>0.1476646323178889</v>
       </c>
       <c r="R15">
-        <v>3.558224690016</v>
+        <v>1.328981690861</v>
       </c>
       <c r="S15">
-        <v>0.1082767574015229</v>
+        <v>0.06142478410877825</v>
       </c>
       <c r="T15">
-        <v>0.1082767574015229</v>
+        <v>0.06142478410877825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H16">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I16">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J16">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,42 +1429,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.160296</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N16">
-        <v>0.480888</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O16">
-        <v>0.02525717901625954</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P16">
-        <v>0.02525717901625954</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q16">
-        <v>0.025711318104</v>
+        <v>0.018514105918</v>
       </c>
       <c r="R16">
-        <v>0.231401862936</v>
+        <v>0.166626953262</v>
       </c>
       <c r="S16">
-        <v>0.007041557393968018</v>
+        <v>0.007701403789988204</v>
       </c>
       <c r="T16">
-        <v>0.007041557393968018</v>
+        <v>0.007701403789988203</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.09509666666666666</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H17">
-        <v>0.28529</v>
+        <v>0.177199</v>
       </c>
       <c r="I17">
-        <v>0.1652903574927592</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J17">
-        <v>0.1652903574927592</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,42 +1491,42 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9048976666666667</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N17">
-        <v>2.714693</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O17">
-        <v>0.1425809899086412</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P17">
-        <v>0.1425809899086412</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q17">
-        <v>0.08605275177444445</v>
+        <v>0.09885729415588887</v>
       </c>
       <c r="R17">
-        <v>0.77447476597</v>
+        <v>0.8897156474029999</v>
       </c>
       <c r="S17">
-        <v>0.0235672627936708</v>
+        <v>0.04112215535830669</v>
       </c>
       <c r="T17">
-        <v>0.0235672627936708</v>
+        <v>0.04112215535830669</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,60 +1535,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.09509666666666666</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H18">
-        <v>0.28529</v>
+        <v>0.177199</v>
       </c>
       <c r="I18">
-        <v>0.1652903574927592</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J18">
-        <v>0.1652903574927592</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.499979666666666</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N18">
-        <v>7.499938999999999</v>
+        <v>0.373853</v>
       </c>
       <c r="O18">
-        <v>0.3939114761317116</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P18">
-        <v>0.3939114761317116</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q18">
-        <v>0.2377397330344444</v>
+        <v>0.007360708638555555</v>
       </c>
       <c r="R18">
-        <v>2.13965759731</v>
+        <v>0.066246377747</v>
       </c>
       <c r="S18">
-        <v>0.0651097687103111</v>
+        <v>0.003061870211666932</v>
       </c>
       <c r="T18">
-        <v>0.0651097687103111</v>
+        <v>0.003061870211666932</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.09509666666666666</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H19">
-        <v>0.28529</v>
+        <v>0.177199</v>
       </c>
       <c r="I19">
-        <v>0.1652903574927592</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J19">
-        <v>0.1652903574927592</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,152 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.316536</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N19">
-        <v>0.949608</v>
+        <v>0.396731</v>
       </c>
       <c r="O19">
-        <v>0.04987527085573395</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P19">
-        <v>0.04987527085573395</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q19">
-        <v>0.03010151848</v>
+        <v>0.007811148496555556</v>
       </c>
       <c r="R19">
-        <v>0.27091366632</v>
+        <v>0.070300336469</v>
       </c>
       <c r="S19">
-        <v>0.00824390134979246</v>
+        <v>0.003249241897068724</v>
       </c>
       <c r="T19">
-        <v>0.00824390134979246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.28529</v>
-      </c>
-      <c r="I20">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J20">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.464842666666667</v>
-      </c>
-      <c r="N20">
-        <v>7.394528</v>
-      </c>
-      <c r="O20">
-        <v>0.3883750840876537</v>
-      </c>
-      <c r="P20">
-        <v>0.3883750840876537</v>
-      </c>
-      <c r="Q20">
-        <v>0.2343983214577778</v>
-      </c>
-      <c r="R20">
-        <v>2.10958489312</v>
-      </c>
-      <c r="S20">
-        <v>0.0641946564901287</v>
-      </c>
-      <c r="T20">
-        <v>0.0641946564901287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.28529</v>
-      </c>
-      <c r="I21">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J21">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.160296</v>
-      </c>
-      <c r="N21">
-        <v>0.480888</v>
-      </c>
-      <c r="O21">
-        <v>0.02525717901625954</v>
-      </c>
-      <c r="P21">
-        <v>0.02525717901625954</v>
-      </c>
-      <c r="Q21">
-        <v>0.01524361528</v>
-      </c>
-      <c r="R21">
-        <v>0.13719253752</v>
-      </c>
-      <c r="S21">
-        <v>0.004174768148856155</v>
-      </c>
-      <c r="T21">
-        <v>0.004174768148856155</v>
+        <v>0.003249241897068724</v>
       </c>
     </row>
   </sheetData>
